--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FB68A-041D-9046-8C35-8C86F88ED0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061F5B9-603E-9445-A060-F7953C43378F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="-660" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27820" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="current file" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Poposed file" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="78">
   <si>
     <t>Country</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Egypt, Cairo</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -706,6 +715,306 @@
   <dxfs count="59">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <u/>
@@ -732,306 +1041,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1613,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,18 +1633,19 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1646,37 +1656,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>7</v>
       </c>
@@ -1687,36 +1700,39 @@
         <v>9</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="50">
+      <c r="H2" s="50">
         <v>43511</v>
       </c>
-      <c r="H2" s="46">
-        <f>G2+6</f>
+      <c r="I2" s="46">
+        <f>H2+6</f>
         <v>43517</v>
       </c>
-      <c r="I2" s="49">
-        <f t="shared" ref="I2:I17" si="0">H2-G2</f>
+      <c r="J2" s="49">
+        <f t="shared" ref="J2:J17" si="0">I2-H2</f>
         <v>6</v>
       </c>
-      <c r="J2" s="27">
+      <c r="K2" s="27">
         <v>1</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="L2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>13</v>
       </c>
@@ -1727,34 +1743,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="47">
+      <c r="G3" s="18"/>
+      <c r="H3" s="47">
         <v>43513</v>
       </c>
-      <c r="H3" s="47">
-        <f>G3+10</f>
+      <c r="I3" s="47">
+        <f>H3+10</f>
         <v>43523</v>
       </c>
-      <c r="I3" s="20">
+      <c r="J3" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J3" s="21">
+      <c r="K3" s="21">
         <v>2</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="L3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>7</v>
       </c>
@@ -1765,34 +1784,37 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="48">
+      <c r="G4" s="11"/>
+      <c r="H4" s="48">
         <v>43516</v>
       </c>
-      <c r="H4" s="48">
-        <f>G4+3</f>
+      <c r="I4" s="48">
+        <f>H4+3</f>
         <v>43519</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="L4" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>8</v>
       </c>
@@ -1802,35 +1824,38 @@
       <c r="C5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="46">
+      <c r="G5" s="25"/>
+      <c r="H5" s="46">
         <v>43517</v>
       </c>
-      <c r="H5" s="46">
-        <f>G5+7</f>
+      <c r="I5" s="46">
+        <f>H5+7</f>
         <v>43524</v>
       </c>
-      <c r="I5" s="49">
+      <c r="J5" s="49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J5" s="27">
+      <c r="K5" s="27">
         <v>1</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="L5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>11</v>
       </c>
@@ -1841,34 +1866,37 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="48">
+      <c r="G6" s="11"/>
+      <c r="H6" s="48">
         <v>43519</v>
       </c>
-      <c r="H6" s="48">
-        <f>G6+7</f>
+      <c r="I6" s="48">
+        <f>H6+7</f>
         <v>43526</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="L6" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -1878,37 +1906,40 @@
       <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="47">
+      <c r="H7" s="47">
         <v>43520</v>
       </c>
-      <c r="H7" s="47">
-        <f>G7+30</f>
+      <c r="I7" s="47">
+        <f>H7+30</f>
         <v>43550</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J7" s="21">
+      <c r="K7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="L7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>2</v>
       </c>
@@ -1919,36 +1950,39 @@
         <v>7</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="46">
+      <c r="H8" s="46">
         <v>43524</v>
       </c>
-      <c r="H8" s="46">
-        <f>G8+10</f>
+      <c r="I8" s="46">
+        <f>H8+10</f>
         <v>43534</v>
       </c>
-      <c r="I8" s="28">
+      <c r="J8" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J8" s="27">
+      <c r="K8" s="27">
         <v>2</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="L8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="M8" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -1958,35 +1992,38 @@
       <c r="C9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="48">
+      <c r="G9" s="11"/>
+      <c r="H9" s="48">
         <v>43524</v>
       </c>
-      <c r="H9" s="48">
-        <f>G9+14</f>
+      <c r="I9" s="48">
+        <f>H9+14</f>
         <v>43538</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="14">
         <v>1</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="L9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -1996,37 +2033,40 @@
       <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="47">
+      <c r="H10" s="47">
         <v>43526</v>
       </c>
-      <c r="H10" s="47">
-        <f>G10+15</f>
+      <c r="I10" s="47">
+        <f>H10+15</f>
         <v>43541</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J10" s="21">
+      <c r="K10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="L10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>17</v>
       </c>
@@ -2036,35 +2076,38 @@
       <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="48">
+      <c r="G11" s="11"/>
+      <c r="H11" s="48">
         <v>43539</v>
       </c>
-      <c r="H11" s="48">
-        <f>G11+15</f>
+      <c r="I11" s="48">
+        <f>H11+15</f>
         <v>43554</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="14">
         <v>1</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="L11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -2075,37 +2118,40 @@
         <v>24</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="46">
+      <c r="G12" s="32"/>
+      <c r="H12" s="46">
         <v>43541</v>
       </c>
-      <c r="H12" s="46">
-        <f>G12+7</f>
+      <c r="I12" s="46">
+        <f>H12+7</f>
         <v>43548</v>
       </c>
-      <c r="I12" s="28">
+      <c r="J12" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J12" s="27">
+      <c r="K12" s="27">
         <v>1</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="L12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>14</v>
       </c>
@@ -2115,38 +2161,41 @@
       <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="47">
+      <c r="G13" s="29"/>
+      <c r="H13" s="47">
         <v>43544</v>
       </c>
-      <c r="H13" s="47">
-        <f>G13+10</f>
+      <c r="I13" s="47">
+        <f>H13+10</f>
         <v>43554</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J13" s="21">
+      <c r="K13" s="21">
         <v>2</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="L13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="M13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="N13" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -2157,34 +2206,37 @@
         <v>34</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="46">
+      <c r="G14" s="32"/>
+      <c r="H14" s="46">
         <v>43556</v>
       </c>
-      <c r="H14" s="46">
-        <f>G14+12</f>
+      <c r="I14" s="46">
+        <f>H14+12</f>
         <v>43568</v>
       </c>
-      <c r="I14" s="28">
+      <c r="J14" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J14" s="27">
+      <c r="K14" s="27">
         <v>1</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="L14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>4</v>
       </c>
@@ -2194,37 +2246,40 @@
       <c r="C15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="48">
+      <c r="H15" s="48">
         <v>43586</v>
       </c>
-      <c r="H15" s="48">
-        <f>G15+5</f>
+      <c r="I15" s="48">
+        <f>H15+5</f>
         <v>43591</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>1</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="L15" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -2235,34 +2290,37 @@
         <v>25</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="47">
+      <c r="G16" s="29"/>
+      <c r="H16" s="47">
         <v>43586</v>
       </c>
-      <c r="H16" s="47">
-        <f>G16+10</f>
+      <c r="I16" s="47">
+        <f>H16+10</f>
         <v>43596</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J16" s="21">
+      <c r="K16" s="21">
         <v>1</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="L16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2272,177 +2330,180 @@
       <c r="C17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="46">
+      <c r="G17" s="32"/>
+      <c r="H17" s="46">
         <v>43647</v>
       </c>
-      <c r="H17" s="46">
-        <f>G17+10</f>
+      <c r="I17" s="46">
+        <f>H17+10</f>
         <v>43657</v>
       </c>
-      <c r="I17" s="28">
+      <c r="J17" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="27">
+      <c r="K17" s="27">
         <v>1</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="L17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="G20" s="45"/>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H20" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:L17">
-      <sortCondition ref="G1:G17"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:M17">
+      <sortCondition ref="H1:H17"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
+  <conditionalFormatting sqref="E1:E5 E7:E9">
     <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
+  <conditionalFormatting sqref="E1:E5 E7:E9">
     <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
+  <conditionalFormatting sqref="E1:E5 E7:E9">
     <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
@@ -3167,7 +3228,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4480,152 +4541,152 @@
     <mergeCell ref="C15:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061F5B9-603E-9445-A060-F7953C43378F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FB68A-041D-9046-8C35-8C86F88ED0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27820" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29900" yWindow="-660" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="current file" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Poposed file" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
   <si>
     <t>Country</t>
   </si>
@@ -261,15 +261,6 @@
   </si>
   <si>
     <t>Egypt, Cairo</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Standby</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -715,306 +706,6 @@
   <dxfs count="59">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <u/>
@@ -1041,6 +732,306 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1622,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,19 +1624,18 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1656,40 +1646,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K1" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>7</v>
       </c>
@@ -1700,39 +1687,36 @@
         <v>9</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="50">
+      <c r="G2" s="50">
         <v>43511</v>
       </c>
-      <c r="I2" s="46">
-        <f>H2+6</f>
+      <c r="H2" s="46">
+        <f>G2+6</f>
         <v>43517</v>
       </c>
-      <c r="J2" s="49">
-        <f t="shared" ref="J2:J17" si="0">I2-H2</f>
+      <c r="I2" s="49">
+        <f t="shared" ref="I2:I17" si="0">H2-G2</f>
         <v>6</v>
       </c>
-      <c r="K2" s="27">
+      <c r="J2" s="27">
         <v>1</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="K2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>13</v>
       </c>
@@ -1743,37 +1727,34 @@
         <v>11</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="47">
+        <v>43513</v>
+      </c>
       <c r="H3" s="47">
-        <v>43513</v>
-      </c>
-      <c r="I3" s="47">
-        <f>H3+10</f>
+        <f>G3+10</f>
         <v>43523</v>
       </c>
-      <c r="J3" s="20">
+      <c r="I3" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K3" s="21">
+      <c r="J3" s="21">
         <v>2</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="K3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>7</v>
       </c>
@@ -1784,37 +1765,34 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="48">
+        <v>43516</v>
+      </c>
       <c r="H4" s="48">
-        <v>43516</v>
-      </c>
-      <c r="I4" s="48">
-        <f>H4+3</f>
+        <f>G4+3</f>
         <v>43519</v>
       </c>
-      <c r="J4" s="13">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K4" s="14">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="K4" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>8</v>
       </c>
@@ -1824,38 +1802,35 @@
       <c r="C5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>77</v>
+      <c r="D5" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="46">
+        <v>43517</v>
+      </c>
       <c r="H5" s="46">
-        <v>43517</v>
-      </c>
-      <c r="I5" s="46">
-        <f>H5+7</f>
+        <f>G5+7</f>
         <v>43524</v>
       </c>
-      <c r="J5" s="49">
+      <c r="I5" s="49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5" s="27">
+      <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="K5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>11</v>
       </c>
@@ -1866,37 +1841,34 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="48">
+        <v>43519</v>
+      </c>
       <c r="H6" s="48">
-        <v>43519</v>
-      </c>
-      <c r="I6" s="48">
-        <f>H6+7</f>
+        <f>G6+7</f>
         <v>43526</v>
       </c>
-      <c r="J6" s="13">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K6" s="14">
+      <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="K6" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -1906,40 +1878,37 @@
       <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>77</v>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>43</v>
       </c>
+      <c r="G7" s="47">
+        <v>43520</v>
+      </c>
       <c r="H7" s="47">
-        <v>43520</v>
-      </c>
-      <c r="I7" s="47">
-        <f>H7+30</f>
+        <f>G7+30</f>
         <v>43550</v>
       </c>
-      <c r="J7" s="20">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K7" s="21">
+      <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="K7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>2</v>
       </c>
@@ -1950,39 +1919,36 @@
         <v>7</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="46">
+        <v>43524</v>
+      </c>
       <c r="H8" s="46">
-        <v>43524</v>
-      </c>
-      <c r="I8" s="46">
-        <f>H8+10</f>
+        <f>G8+10</f>
         <v>43534</v>
       </c>
-      <c r="J8" s="28">
+      <c r="I8" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K8" s="27">
+      <c r="J8" s="27">
         <v>2</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="K8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="L8" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -1992,38 +1958,35 @@
       <c r="C9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>77</v>
+      <c r="D9" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="48">
+        <v>43524</v>
+      </c>
       <c r="H9" s="48">
-        <v>43524</v>
-      </c>
-      <c r="I9" s="48">
-        <f>H9+14</f>
+        <f>G9+14</f>
         <v>43538</v>
       </c>
-      <c r="J9" s="13">
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K9" s="14">
+      <c r="J9" s="14">
         <v>1</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="K9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -2033,40 +1996,37 @@
       <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>77</v>
+      <c r="D10" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="G10" s="47">
+        <v>43526</v>
+      </c>
       <c r="H10" s="47">
-        <v>43526</v>
-      </c>
-      <c r="I10" s="47">
-        <f>H10+15</f>
+        <f>G10+15</f>
         <v>43541</v>
       </c>
-      <c r="J10" s="20">
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K10" s="21">
+      <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="K10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>17</v>
       </c>
@@ -2076,38 +2036,35 @@
       <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>77</v>
+      <c r="D11" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="48">
+        <v>43539</v>
+      </c>
       <c r="H11" s="48">
-        <v>43539</v>
-      </c>
-      <c r="I11" s="48">
-        <f>H11+15</f>
+        <f>G11+15</f>
         <v>43554</v>
       </c>
-      <c r="J11" s="13">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K11" s="14">
+      <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="K11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -2118,40 +2075,37 @@
         <v>24</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="46">
+        <v>43541</v>
+      </c>
       <c r="H12" s="46">
-        <v>43541</v>
-      </c>
-      <c r="I12" s="46">
-        <f>H12+7</f>
+        <f>G12+7</f>
         <v>43548</v>
       </c>
-      <c r="J12" s="28">
+      <c r="I12" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K12" s="27">
+      <c r="J12" s="27">
         <v>1</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="K12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="M12" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>14</v>
       </c>
@@ -2161,41 +2115,38 @@
       <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>77</v>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="47">
+        <v>43544</v>
+      </c>
       <c r="H13" s="47">
-        <v>43544</v>
-      </c>
-      <c r="I13" s="47">
-        <f>H13+10</f>
+        <f>G13+10</f>
         <v>43554</v>
       </c>
-      <c r="J13" s="20">
+      <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K13" s="21">
+      <c r="J13" s="21">
         <v>2</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="K13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="L13" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -2206,37 +2157,34 @@
         <v>34</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="46">
+        <v>43556</v>
+      </c>
       <c r="H14" s="46">
-        <v>43556</v>
-      </c>
-      <c r="I14" s="46">
-        <f>H14+12</f>
+        <f>G14+12</f>
         <v>43568</v>
       </c>
-      <c r="J14" s="28">
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K14" s="27">
+      <c r="J14" s="27">
         <v>1</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="K14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>4</v>
       </c>
@@ -2246,40 +2194,37 @@
       <c r="C15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>77</v>
+      <c r="D15" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="G15" s="48">
+        <v>43586</v>
+      </c>
       <c r="H15" s="48">
-        <v>43586</v>
-      </c>
-      <c r="I15" s="48">
-        <f>H15+5</f>
+        <f>G15+5</f>
         <v>43591</v>
       </c>
-      <c r="J15" s="13">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K15" s="14">
+      <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="K15" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -2290,37 +2235,34 @@
         <v>25</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="47">
+        <v>43586</v>
+      </c>
       <c r="H16" s="47">
-        <v>43586</v>
-      </c>
-      <c r="I16" s="47">
-        <f>H16+10</f>
+        <f>G16+10</f>
         <v>43596</v>
       </c>
-      <c r="J16" s="20">
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K16" s="21">
+      <c r="J16" s="21">
         <v>1</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="K16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2330,180 +2272,177 @@
       <c r="C17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>77</v>
+      <c r="D17" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="46">
+        <v>43647</v>
+      </c>
       <c r="H17" s="46">
-        <v>43647</v>
-      </c>
-      <c r="I17" s="46">
-        <f>H17+10</f>
+        <f>G17+10</f>
         <v>43657</v>
       </c>
-      <c r="J17" s="28">
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K17" s="27">
+      <c r="J17" s="27">
         <v>1</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="K17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="H20" s="45"/>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:M17">
-      <sortCondition ref="H1:H17"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:L17">
+      <sortCondition ref="G1:G17"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E1:E5 E7:E9">
+  <conditionalFormatting sqref="D1:D5 D7:D9">
     <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E7:E9">
+  <conditionalFormatting sqref="D1:D5 D7:D9">
     <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E7:E9">
+  <conditionalFormatting sqref="D1:D5 D7:D9">
     <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
@@ -3228,7 +3167,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4541,152 +4480,152 @@
     <mergeCell ref="C15:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FB68A-041D-9046-8C35-8C86F88ED0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6993354-42DA-6349-85AD-83C4B9FA3B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="-660" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="27240" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="current file" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Main File" sheetId="7" r:id="rId1"/>
+    <sheet name="current file" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="Poposed file" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'current file'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'current file'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="78">
   <si>
     <t>Country</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Egypt, Cairo</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -481,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,9 +673,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,7 +709,277 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -735,306 +1011,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <u/>
@@ -1061,6 +1037,885 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1612,851 +2467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FCD9DD-B167-CD4B-BC32-8C1190E10619}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>7</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="50">
-        <v>43511</v>
-      </c>
-      <c r="H2" s="46">
-        <f>G2+6</f>
-        <v>43517</v>
-      </c>
-      <c r="I2" s="49">
-        <f t="shared" ref="I2:I17" si="0">H2-G2</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="27">
-        <v>1</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="47">
-        <v>43513</v>
-      </c>
-      <c r="H3" s="47">
-        <f>G3+10</f>
-        <v>43523</v>
-      </c>
-      <c r="I3" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J3" s="21">
-        <v>2</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="48">
-        <v>43516</v>
-      </c>
-      <c r="H4" s="48">
-        <f>G4+3</f>
-        <v>43519</v>
-      </c>
-      <c r="I4" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>8</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="46">
-        <v>43517</v>
-      </c>
-      <c r="H5" s="46">
-        <f>G5+7</f>
-        <v>43524</v>
-      </c>
-      <c r="I5" s="49">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J5" s="27">
-        <v>1</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="48">
-        <v>43519</v>
-      </c>
-      <c r="H6" s="48">
-        <f>G6+7</f>
-        <v>43526</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J6" s="14">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="47">
-        <v>43520</v>
-      </c>
-      <c r="H7" s="47">
-        <f>G7+30</f>
-        <v>43550</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J7" s="21">
-        <v>1</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="46">
-        <v>43524</v>
-      </c>
-      <c r="H8" s="46">
-        <f>G8+10</f>
-        <v>43534</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="27">
-        <v>2</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="48">
-        <v>43524</v>
-      </c>
-      <c r="H9" s="48">
-        <f>G9+14</f>
-        <v>43538</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="47">
-        <v>43526</v>
-      </c>
-      <c r="H10" s="47">
-        <f>G10+15</f>
-        <v>43541</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J10" s="21">
-        <v>1</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="48">
-        <v>43539</v>
-      </c>
-      <c r="H11" s="48">
-        <f>G11+15</f>
-        <v>43554</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J11" s="14">
-        <v>1</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
-        <v>15</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="46">
-        <v>43541</v>
-      </c>
-      <c r="H12" s="46">
-        <f>G12+7</f>
-        <v>43548</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J12" s="27">
-        <v>1</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>14</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="47">
-        <v>43544</v>
-      </c>
-      <c r="H13" s="47">
-        <f>G13+10</f>
-        <v>43554</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>9</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="46">
-        <v>43556</v>
-      </c>
-      <c r="H14" s="46">
-        <f>G14+12</f>
-        <v>43568</v>
-      </c>
-      <c r="I14" s="28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J14" s="27">
-        <v>1</v>
-      </c>
-      <c r="K14" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="48">
-        <v>43586</v>
-      </c>
-      <c r="H15" s="48">
-        <f>G15+5</f>
-        <v>43591</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
-      </c>
-      <c r="K15" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>12</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="47">
-        <v>43586</v>
-      </c>
-      <c r="H16" s="47">
-        <f>G16+10</f>
-        <v>43596</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="21">
-        <v>1</v>
-      </c>
-      <c r="K16" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="46">
-        <v>43647</v>
-      </c>
-      <c r="H17" s="46">
-        <f>G17+10</f>
-        <v>43657</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="27">
-        <v>1</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="G20" s="45"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:L17">
-      <sortCondition ref="G1:G17"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5 D7:D9">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="47" priority="16" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>"Completed-N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD1EFB6-BACC-F84F-8F1D-71410E29F012}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,9 +2482,9 @@
     <col min="10" max="10" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>67</v>
@@ -2483,13 +2498,31 @@
       <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>9</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>7</v>
       </c>
       <c r="B2" s="50">
         <v>43511</v>
@@ -2504,11 +2537,32 @@
       <c r="E2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>11</v>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="49">
+        <f>C2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>13</v>
       </c>
       <c r="B3" s="47">
         <v>43513</v>
@@ -2523,10 +2577,31 @@
       <c r="E3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="49">
+        <f t="shared" ref="K3:K17" si="0">C3-B3</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>7</v>
       </c>
       <c r="B4" s="48">
@@ -2542,18 +2617,39 @@
       <c r="E4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>9</v>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>8</v>
       </c>
       <c r="B5" s="46">
-        <v>43518</v>
+        <v>43515</v>
       </c>
       <c r="C5" s="46">
         <f>B5+7</f>
-        <v>43525</v>
+        <v>43522</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>41</v>
@@ -2561,11 +2657,32 @@
       <c r="E5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>11</v>
       </c>
       <c r="B6" s="48">
         <v>43519</v>
@@ -2580,15 +2697,32 @@
       <c r="E6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="I6" t="b">
-        <f>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>12</v>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>3</v>
       </c>
       <c r="B7" s="47">
         <v>43520</v>
@@ -2603,11 +2737,32 @@
       <c r="E7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>7</v>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>2</v>
       </c>
       <c r="B8" s="46">
         <v>43524</v>
@@ -2622,11 +2777,32 @@
       <c r="E8" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>34</v>
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>10</v>
       </c>
       <c r="B9" s="48">
         <v>43524</v>
@@ -2641,11 +2817,32 @@
       <c r="E9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>5</v>
       </c>
       <c r="B10" s="47">
         <v>43526</v>
@@ -2660,11 +2857,32 @@
       <c r="E10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>27</v>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>17</v>
       </c>
       <c r="B11" s="48">
         <v>43539</v>
@@ -2679,11 +2897,32 @@
       <c r="E11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>24</v>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>15</v>
       </c>
       <c r="B12" s="46">
         <v>43541</v>
@@ -2698,13 +2937,32 @@
       <c r="E12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>14</v>
       </c>
       <c r="B13" s="47">
         <v>43544</v>
@@ -2719,13 +2977,32 @@
       <c r="E13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>34</v>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>9</v>
       </c>
       <c r="B14" s="46">
         <v>43556</v>
@@ -2740,11 +3017,32 @@
       <c r="E14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>22</v>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>4</v>
       </c>
       <c r="B15" s="48">
         <v>43586</v>
@@ -2759,11 +3057,32 @@
       <c r="E15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>25</v>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>12</v>
       </c>
       <c r="B16" s="47">
         <v>43586</v>
@@ -2778,11 +3097,32 @@
       <c r="E16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>11</v>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>16</v>
       </c>
       <c r="B17" s="46">
         <v>43647</v>
@@ -2797,19 +3137,176 @@
       <c r="E17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
-      <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="I6" xr:uid="{8642A1B2-24B9-F14B-B2F1-00D2EA82D769}">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+      <formula>SUMPRODUCT(($B2&lt;$C$2:$C$170)*($C2&gt;$B$2:$B$170)*($D2=$D$2:$D$170))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" error="Fix Date Collision" sqref="B2:E17" xr:uid="{D927535F-364F-9147-A871-905C3C09DE8C}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="G6" xr:uid="{A0B5BDA9-8444-AA45-8A82-25239327C13B}">
       <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Fix Date Collision" sqref="A2:E17" xr:uid="{863F6D1C-37AF-1740-9D0F-5E12DF69B0BC}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Fix Date Collision" sqref="A2:A17" xr:uid="{DF23EB9A-ED25-EB4F-8C1A-0363F41E7F14}">
       <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2817,25 +3314,921 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="50">
+        <v>43511</v>
+      </c>
+      <c r="H2" s="46">
+        <f>G2+6</f>
+        <v>43517</v>
+      </c>
+      <c r="I2" s="49">
+        <f t="shared" ref="I2:I17" si="0">H2-G2</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="27">
+        <v>1</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="47">
+        <v>43513</v>
+      </c>
+      <c r="H3" s="47">
+        <f>G3+10</f>
+        <v>43523</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J3" s="21">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="48">
+        <v>43517</v>
+      </c>
+      <c r="H4" s="48">
+        <f>G4+3</f>
+        <v>43520</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>8</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="46">
+        <v>43517</v>
+      </c>
+      <c r="H5" s="46">
+        <f>G5+7</f>
+        <v>43524</v>
+      </c>
+      <c r="I5" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="48">
+        <v>43519</v>
+      </c>
+      <c r="H6" s="48">
+        <f>G6+7</f>
+        <v>43526</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="47">
+        <v>43520</v>
+      </c>
+      <c r="H7" s="47">
+        <f>G7+30</f>
+        <v>43550</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="46">
+        <v>43524</v>
+      </c>
+      <c r="H8" s="46">
+        <f>G8+10</f>
+        <v>43534</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="27">
+        <v>2</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="48">
+        <v>43524</v>
+      </c>
+      <c r="H9" s="48">
+        <f>G9+14</f>
+        <v>43538</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="47">
+        <v>43526</v>
+      </c>
+      <c r="H10" s="47">
+        <f>G10+15</f>
+        <v>43541</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="48">
+        <v>43539</v>
+      </c>
+      <c r="H11" s="48">
+        <f>G11+15</f>
+        <v>43554</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="46">
+        <v>43541</v>
+      </c>
+      <c r="H12" s="46">
+        <f>G12+7</f>
+        <v>43548</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="47">
+        <v>43544</v>
+      </c>
+      <c r="H13" s="47">
+        <f>G13+10</f>
+        <v>43554</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="21">
+        <v>2</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="46">
+        <v>43556</v>
+      </c>
+      <c r="H14" s="46">
+        <f>G14+12</f>
+        <v>43568</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="48">
+        <v>43586</v>
+      </c>
+      <c r="H15" s="48">
+        <f>G15+5</f>
+        <v>43591</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="47">
+        <v>43586</v>
+      </c>
+      <c r="H16" s="47">
+        <f>G16+10</f>
+        <v>43596</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="46">
+        <v>43647</v>
+      </c>
+      <c r="H17" s="46">
+        <f>G17+10</f>
+        <v>43657</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="27">
+        <v>1</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:L17">
+      <sortCondition ref="G1:G17"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E1:E5 E7:E9">
+    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E7:E9">
+    <cfRule type="cellIs" dxfId="140" priority="27" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E7:E9">
+    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="137" priority="24" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="136" priority="23" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="135" priority="22" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="133" priority="20" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="128" priority="15" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="127" priority="14" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="126" priority="13" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="125" priority="12" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H211 K1:K211">
+    <cfRule type="expression" dxfId="114" priority="1">
+      <formula>SUMPRODUCT(($G2&lt;$H$2:$H$170)*($H2&gt;$G$2:$G$170)*($K2=$K$2:$K$170))&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FCD9DD-B167-CD4B-BC32-8C1190E10619}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD1EFB6-BACC-F84F-8F1D-71410E29F012}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>67</v>
@@ -2849,13 +4242,31 @@
       <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>9</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>7</v>
       </c>
       <c r="B2" s="50">
         <v>43511</v>
@@ -2870,11 +4281,32 @@
       <c r="E2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>11</v>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="49">
+        <f>C2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>13</v>
       </c>
       <c r="B3" s="47">
         <v>43513</v>
@@ -2889,10 +4321,31 @@
       <c r="E3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="49">
+        <f t="shared" ref="K3:K17" si="0">C3-B3</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>7</v>
       </c>
       <c r="B4" s="48">
@@ -2908,18 +4361,39 @@
       <c r="E4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>9</v>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>8</v>
       </c>
       <c r="B5" s="46">
-        <v>43515</v>
+        <v>43518</v>
       </c>
       <c r="C5" s="46">
         <f>B5+7</f>
-        <v>43522</v>
+        <v>43525</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>41</v>
@@ -2927,11 +4401,32 @@
       <c r="E5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>11</v>
       </c>
       <c r="B6" s="48">
         <v>43519</v>
@@ -2946,15 +4441,32 @@
       <c r="E6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="I6" t="b">
-        <f>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</f>
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>12</v>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>3</v>
       </c>
       <c r="B7" s="47">
         <v>43520</v>
@@ -2969,11 +4481,32 @@
       <c r="E7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>7</v>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>2</v>
       </c>
       <c r="B8" s="46">
         <v>43524</v>
@@ -2988,11 +4521,32 @@
       <c r="E8" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>34</v>
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>10</v>
       </c>
       <c r="B9" s="48">
         <v>43524</v>
@@ -3007,11 +4561,32 @@
       <c r="E9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>5</v>
       </c>
       <c r="B10" s="47">
         <v>43526</v>
@@ -3026,11 +4601,32 @@
       <c r="E10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>27</v>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>17</v>
       </c>
       <c r="B11" s="48">
         <v>43539</v>
@@ -3045,11 +4641,32 @@
       <c r="E11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>24</v>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>15</v>
       </c>
       <c r="B12" s="46">
         <v>43541</v>
@@ -3064,13 +4681,32 @@
       <c r="E12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>14</v>
       </c>
       <c r="B13" s="47">
         <v>43544</v>
@@ -3085,13 +4721,32 @@
       <c r="E13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>34</v>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>9</v>
       </c>
       <c r="B14" s="46">
         <v>43556</v>
@@ -3106,11 +4761,32 @@
       <c r="E14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>22</v>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>4</v>
       </c>
       <c r="B15" s="48">
         <v>43586</v>
@@ -3125,11 +4801,32 @@
       <c r="E15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>25</v>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>12</v>
       </c>
       <c r="B16" s="47">
         <v>43586</v>
@@ -3144,11 +4841,32 @@
       <c r="E16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>11</v>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>16</v>
       </c>
       <c r="B17" s="46">
         <v>43647</v>
@@ -3163,18 +4881,176 @@
       <c r="E17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="28" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="112" priority="27" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5 I7:I9">
+    <cfRule type="cellIs" dxfId="110" priority="25" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="106" priority="21" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="103" priority="18" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="101" priority="16" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="100" priority="15" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" error="Fix Date Collision" sqref="A2:E17" xr:uid="{D927535F-364F-9147-A871-905C3C09DE8C}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="I6" xr:uid="{70FA1A24-E2EB-7147-BAEE-30D5F0D0C6C0}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="G6" xr:uid="{8642A1B2-24B9-F14B-B2F1-00D2EA82D769}">
       <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Fix Date Collision" sqref="A2:E17" xr:uid="{863F6D1C-37AF-1740-9D0F-5E12DF69B0BC}">
+      <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3247,13 +5123,13 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="53" t="str">
         <f>O5</f>
         <v>BP</v>
       </c>
@@ -3303,9 +5179,9 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -3354,9 +5230,9 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3401,13 +5277,13 @@
       <c r="A7" s="6">
         <v>43516</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -3452,11 +5328,11 @@
       <c r="A8" s="6">
         <v>43517</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="31"/>
@@ -3503,11 +5379,11 @@
       <c r="A9" s="6">
         <v>43518</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -3552,13 +5428,13 @@
       <c r="A10" s="6">
         <v>43519</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -3605,12 +5481,12 @@
       <c r="A11" s="6">
         <v>43520</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="31"/>
@@ -3658,12 +5534,12 @@
       <c r="A12" s="6">
         <v>43521</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="M12" s="9">
@@ -3707,12 +5583,12 @@
       <c r="A13" s="6">
         <v>43522</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="M13" s="15">
@@ -3758,12 +5634,12 @@
       <c r="A14" s="6">
         <v>43523</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="M14" s="22">
@@ -3807,17 +5683,17 @@
       <c r="A15" s="6">
         <v>43524</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="31"/>
@@ -3865,13 +5741,13 @@
       <c r="A16" s="6">
         <v>43525</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="54"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="31"/>
       <c r="M16" s="15">
         <v>14</v>
@@ -3917,14 +5793,14 @@
       <c r="A17" s="6">
         <v>43526</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="62" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="61" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="22">
@@ -3969,13 +5845,13 @@
         <v>43527</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="61"/>
       <c r="M18" s="9">
         <v>4</v>
       </c>
@@ -4020,13 +5896,13 @@
         <v>43528</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="62"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="61"/>
       <c r="M19" s="15">
         <v>12</v>
       </c>
@@ -4069,13 +5945,13 @@
         <v>43529</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="62"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="61"/>
       <c r="M20" s="22">
         <v>16</v>
       </c>
@@ -4118,117 +5994,117 @@
         <v>43530</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="62"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43531</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="62"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43532</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43533</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="62"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43534</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="62"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43535</v>
       </c>
       <c r="B26" s="30"/>
-      <c r="C26" s="58"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="55"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="62"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43536</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="55"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="62"/>
+      <c r="I27" s="61"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43537</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="55"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="62"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43538</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="59"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="55"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="62"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -4239,9 +6115,9 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="55"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="62"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -4252,9 +6128,9 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="55"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="62"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -4265,9 +6141,9 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="55"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="62"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -4275,13 +6151,13 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="52" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="53" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="52" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="40" t="s">
@@ -4293,13 +6169,13 @@
         <v>43555</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="38"/>
       <c r="F34" s="8"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4307,7 +6183,7 @@
         <v>43562</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="54"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="31"/>
       <c r="E35" s="38"/>
       <c r="F35" s="8"/>
@@ -4480,152 +6356,152 @@
     <mergeCell ref="C15:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6993354-42DA-6349-85AD-83C4B9FA3B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175AF6F-491D-F94A-944E-B3B7EFAF1AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="27240" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2482,12 +2482,12 @@
     <col min="10" max="10" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175AF6F-491D-F94A-944E-B3B7EFAF1AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45070D5-2986-EF49-90A8-B09959D932E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="27240" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,10 +673,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,22 +704,312 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1011,6 +1311,556 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <u/>
@@ -1037,1155 +1887,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2471,15 +2172,17 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2645,11 +2348,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="46">
-        <v>43515</v>
+        <v>43517</v>
       </c>
       <c r="C5" s="46">
         <f>B5+7</f>
-        <v>43522</v>
+        <v>43524</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>41</v>
@@ -3162,142 +2865,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="28" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$170)*($C2&gt;$B$2:$B$170)*($D2=$D$2:$D$170))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3416,7 +3119,7 @@
       <c r="J2" s="27">
         <v>1</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -3459,7 +3162,7 @@
       <c r="J3" s="21">
         <v>2</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="21" t="s">
@@ -3500,7 +3203,7 @@
       <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="52" t="s">
         <v>72</v>
       </c>
       <c r="L4" s="14" t="s">
@@ -3541,7 +3244,7 @@
       <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="52" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="14" t="s">
@@ -3582,7 +3285,7 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="52" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="14" t="s">
@@ -3623,7 +3326,7 @@
       <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="52" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="14" t="s">
@@ -3666,7 +3369,7 @@
       <c r="J8" s="27">
         <v>2</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="33" t="s">
@@ -3709,7 +3412,7 @@
       <c r="J9" s="14">
         <v>1</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="52" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="14" t="s">
@@ -3750,7 +3453,7 @@
       <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="52" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="14" t="s">
@@ -3793,7 +3496,7 @@
       <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="52" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="14" t="s">
@@ -3834,7 +3537,7 @@
       <c r="J12" s="27">
         <v>1</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="52" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="14" t="s">
@@ -3878,7 +3581,7 @@
       <c r="J13" s="21">
         <v>2</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="35" t="s">
@@ -3922,7 +3625,7 @@
       <c r="J14" s="27">
         <v>1</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="52" t="s">
         <v>64</v>
       </c>
       <c r="L14" s="14" t="s">
@@ -3963,7 +3666,7 @@
       <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="52" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="14" t="s">
@@ -4006,7 +3709,7 @@
       <c r="J16" s="21">
         <v>1</v>
       </c>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="14" t="s">
@@ -4047,7 +3750,7 @@
       <c r="J17" s="27">
         <v>1</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="14" t="s">
@@ -4068,142 +3771,142 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E1:E5 E7:E9">
-    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="28" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E5 E7:E9">
-    <cfRule type="cellIs" dxfId="140" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="27" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E5 E7:E9">
-    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="137" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="24" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="136" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="135" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="21" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="133" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="20" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="19" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="128" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="127" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="14" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="126" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="125" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H211 K1:K211">
-    <cfRule type="expression" dxfId="114" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>SUMPRODUCT(($G2&lt;$H$2:$H$170)*($H2&gt;$G$2:$G$170)*($K2=$K$2:$K$170))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4906,142 +4609,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="113" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="28" stopIfTrue="1">
       <formula>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="112" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="110" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="106" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="103" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="101" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="100" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5123,13 +4826,13 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="54" t="str">
         <f>O5</f>
         <v>BP</v>
       </c>
@@ -5179,9 +4882,9 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -5230,9 +4933,9 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5277,13 +4980,13 @@
       <c r="A7" s="6">
         <v>43516</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -5328,11 +5031,11 @@
       <c r="A8" s="6">
         <v>43517</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="54" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="31"/>
@@ -5379,11 +5082,11 @@
       <c r="A9" s="6">
         <v>43518</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -5428,13 +5131,13 @@
       <c r="A10" s="6">
         <v>43519</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -5481,12 +5184,12 @@
       <c r="A11" s="6">
         <v>43520</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="31"/>
@@ -5534,12 +5237,12 @@
       <c r="A12" s="6">
         <v>43521</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="M12" s="9">
@@ -5583,12 +5286,12 @@
       <c r="A13" s="6">
         <v>43522</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="M13" s="15">
@@ -5634,12 +5337,12 @@
       <c r="A14" s="6">
         <v>43523</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="M14" s="22">
@@ -5683,17 +5386,17 @@
       <c r="A15" s="6">
         <v>43524</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="53" t="s">
+      <c r="G15" s="58"/>
+      <c r="H15" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="31"/>
@@ -5741,13 +5444,13 @@
       <c r="A16" s="6">
         <v>43525</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="31"/>
       <c r="M16" s="15">
         <v>14</v>
@@ -5793,14 +5496,14 @@
       <c r="A17" s="6">
         <v>43526</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="61" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="22">
@@ -5845,13 +5548,13 @@
         <v>43527</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="61"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
       <c r="M18" s="9">
         <v>4</v>
       </c>
@@ -5896,13 +5599,13 @@
         <v>43528</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="61"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
       <c r="M19" s="15">
         <v>12</v>
       </c>
@@ -5945,13 +5648,13 @@
         <v>43529</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="61"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
       <c r="M20" s="22">
         <v>16</v>
       </c>
@@ -5994,117 +5697,117 @@
         <v>43530</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="61"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43531</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="61"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43532</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="61"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43533</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="61"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43534</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="61"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43535</v>
       </c>
       <c r="B26" s="30"/>
-      <c r="C26" s="57"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="54"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43536</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="61"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43537</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="54"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="61"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43538</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="58"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="54"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="61"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -6115,9 +5818,9 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="61"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -6128,9 +5831,9 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="61"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -6141,9 +5844,9 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="54"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="61"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -6151,13 +5854,13 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="57" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="52" t="s">
+      <c r="G33" s="59"/>
+      <c r="H33" s="57" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="40" t="s">
@@ -6169,13 +5872,13 @@
         <v>43555</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="38"/>
       <c r="F34" s="8"/>
-      <c r="H34" s="52"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6183,7 +5886,7 @@
         <v>43562</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="53"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="31"/>
       <c r="E35" s="38"/>
       <c r="F35" s="8"/>
@@ -6340,11 +6043,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="I17:I32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="E4:E14"/>
@@ -6354,154 +6052,159 @@
     <mergeCell ref="H15:H25"/>
     <mergeCell ref="D15:D25"/>
     <mergeCell ref="C15:C29"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="I17:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="85" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="84" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8 P10:P12">
-    <cfRule type="cellIs" dxfId="83" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="79" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="77" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="75" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="71" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:P18">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadielbaba/Desktop/Tenaris FISE Mgmt Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45070D5-2986-EF49-90A8-B09959D932E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8870D882-BACA-9540-90B1-543D58D416CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="27240" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main File" sheetId="7" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="147">
   <si>
     <t>Country</t>
   </si>
@@ -270,6 +271,213 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bashar</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Sahoo, Bibekananda</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADNOC </t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>Milton Machado</t>
+  </si>
+  <si>
+    <t>Al Yaarabi, Yahya</t>
+  </si>
+  <si>
+    <t>Bhogavilli, Bala Ranjith Kumar</t>
+  </si>
+  <si>
+    <t>AD-68</t>
+  </si>
+  <si>
+    <t>Al Hail</t>
+  </si>
+  <si>
+    <t>SMS FAITH</t>
+  </si>
+  <si>
+    <t>AD-67</t>
+  </si>
+  <si>
+    <t>AD-66</t>
+  </si>
+  <si>
+    <t>AD-131</t>
+  </si>
+  <si>
+    <t>AD-130</t>
+  </si>
+  <si>
+    <t>AD-69</t>
+  </si>
+  <si>
+    <t>4.5 "</t>
+  </si>
+  <si>
+    <t>6 5/8"</t>
+  </si>
+  <si>
+    <t>9 5/8"</t>
+  </si>
+  <si>
+    <t>TBC1</t>
+  </si>
+  <si>
+    <t>TBC2</t>
+  </si>
+  <si>
+    <t>Sub BU</t>
+  </si>
+  <si>
+    <t>DIMI</t>
+  </si>
+  <si>
+    <t>DINS</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>OMENA</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>h14</t>
+  </si>
+  <si>
+    <t>h15</t>
+  </si>
+  <si>
+    <t>h16</t>
+  </si>
+  <si>
+    <t>h17</t>
+  </si>
+  <si>
+    <t>h18</t>
+  </si>
+  <si>
+    <t>h19</t>
+  </si>
+  <si>
+    <t>h20</t>
+  </si>
+  <si>
+    <t>h21</t>
+  </si>
+  <si>
+    <t>h22</t>
+  </si>
+  <si>
+    <t>h23</t>
+  </si>
+  <si>
+    <t>h24</t>
+  </si>
+  <si>
+    <t>h25</t>
+  </si>
+  <si>
+    <t>h26</t>
+  </si>
+  <si>
+    <t>h27</t>
+  </si>
+  <si>
+    <t>h28</t>
+  </si>
+  <si>
+    <t>h29</t>
+  </si>
+  <si>
+    <t>h30</t>
+  </si>
+  <si>
+    <t>h31</t>
+  </si>
+  <si>
+    <t>h32</t>
+  </si>
+  <si>
+    <t>h33</t>
+  </si>
+  <si>
+    <t>h34</t>
+  </si>
+  <si>
+    <t>h35</t>
+  </si>
+  <si>
+    <t>h36</t>
+  </si>
+  <si>
+    <t>h37</t>
   </si>
 </sst>
 </file>
@@ -283,7 +491,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +526,41 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -364,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -485,12 +728,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,6 +950,59 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -709,7 +1038,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="123">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1591,276 +1920,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <u/>
@@ -1887,6 +1946,366 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2169,45 +2588,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FCD9DD-B167-CD4B-BC32-8C1190E10619}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="68" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="69" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2219,11 +2639,29 @@
       <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>7</v>
       </c>
@@ -2238,7 +2676,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="27">
         <v>1</v>
@@ -2262,17 +2700,32 @@
       <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>13</v>
       </c>
       <c r="B3" s="47">
-        <v>43513</v>
+        <v>43482</v>
       </c>
       <c r="C3" s="47">
         <f>B3+10</f>
-        <v>43523</v>
+        <v>43492</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>16</v>
@@ -2302,23 +2755,38 @@
       <c r="L3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>7</v>
       </c>
       <c r="B4" s="48">
-        <v>43516</v>
+        <v>43485</v>
       </c>
       <c r="C4" s="48">
         <f>B4+3</f>
-        <v>43519</v>
+        <v>43488</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>69</v>
+      <c r="E4" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -2342,8 +2810,23 @@
       <c r="L4" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>8</v>
       </c>
@@ -2357,8 +2840,8 @@
       <c r="D5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>69</v>
+      <c r="E5" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F5" s="27">
         <v>1</v>
@@ -2382,8 +2865,23 @@
       <c r="L5" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>11</v>
       </c>
@@ -2397,8 +2895,8 @@
       <c r="D6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>69</v>
+      <c r="E6" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -2422,8 +2920,23 @@
       <c r="L6" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -2438,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
@@ -2462,8 +2975,23 @@
       <c r="L7" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>2</v>
       </c>
@@ -2502,8 +3030,23 @@
       <c r="L8" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -2515,10 +3058,10 @@
         <v>43538</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -2542,8 +3085,23 @@
       <c r="L9" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -2557,8 +3115,8 @@
       <c r="D10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>69</v>
+      <c r="E10" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="21">
         <v>1</v>
@@ -2582,8 +3140,23 @@
       <c r="L10" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>17</v>
       </c>
@@ -2595,10 +3168,10 @@
         <v>43554</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -2622,8 +3195,23 @@
       <c r="L11" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>15</v>
       </c>
@@ -2638,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12" s="27">
         <v>1</v>
@@ -2662,8 +3250,23 @@
       <c r="L12" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>14</v>
       </c>
@@ -2702,8 +3305,23 @@
       <c r="L13" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -2715,10 +3333,10 @@
         <v>43568</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F14" s="27">
         <v>1</v>
@@ -2742,8 +3360,23 @@
       <c r="L14" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>4</v>
       </c>
@@ -2757,8 +3390,8 @@
       <c r="D15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>69</v>
+      <c r="E15" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -2782,23 +3415,38 @@
       <c r="L15" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>12</v>
       </c>
       <c r="B16" s="47">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="C16" s="47">
         <f>B16+10</f>
-        <v>43596</v>
+        <v>43688</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>69</v>
+      <c r="E16" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="21">
         <v>1</v>
@@ -2822,23 +3470,38 @@
       <c r="L16" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="46">
-        <v>43647</v>
+        <v>43627</v>
       </c>
       <c r="C17" s="46">
         <f>B17+10</f>
-        <v>43657</v>
+        <v>43637</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" s="27">
         <v>1</v>
@@ -2862,154 +3525,1350 @@
       <c r="L17" s="24" t="s">
         <v>26</v>
       </c>
+      <c r="M17" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46">
+        <v>43647</v>
+      </c>
+      <c r="C18" s="46">
+        <f>B18+7</f>
+        <v>43654</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="49">
+        <f t="shared" ref="K18:K38" si="1">C18-B18</f>
+        <v>7</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="59">
+        <v>18</v>
+      </c>
+      <c r="B19" s="57">
+        <v>43762</v>
+      </c>
+      <c r="C19" s="57">
+        <v>43766</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="58">
+        <v>1</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>18</v>
+      </c>
+      <c r="B20" s="57">
+        <v>43762</v>
+      </c>
+      <c r="C20" s="57">
+        <v>43766</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="58">
+        <v>1</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="49">
+        <f t="shared" ref="K20" si="2">C20-B20</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>19</v>
+      </c>
+      <c r="B21" s="57">
+        <v>43768</v>
+      </c>
+      <c r="C21" s="57">
+        <v>43770</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="58">
+        <v>1</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>20</v>
+      </c>
+      <c r="B22" s="57">
+        <v>43768</v>
+      </c>
+      <c r="C22" s="57">
+        <v>43773</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="58">
+        <v>1</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>20</v>
+      </c>
+      <c r="B23" s="57">
+        <v>43768</v>
+      </c>
+      <c r="C23" s="57">
+        <v>43773</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="58">
+        <v>1</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="49">
+        <f t="shared" ref="K23" si="3">C23-B23</f>
+        <v>5</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>21</v>
+      </c>
+      <c r="B24" s="57">
+        <v>43768</v>
+      </c>
+      <c r="C24" s="57">
+        <v>43773</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="58">
+        <v>1</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>22</v>
+      </c>
+      <c r="B25" s="57">
+        <v>43770</v>
+      </c>
+      <c r="C25" s="57">
+        <v>43776</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="58">
+        <v>1</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>23</v>
+      </c>
+      <c r="B26" s="60">
+        <v>43772</v>
+      </c>
+      <c r="C26" s="57">
+        <v>43776</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="58">
+        <v>1</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>24</v>
+      </c>
+      <c r="B27" s="57">
+        <v>43774</v>
+      </c>
+      <c r="C27" s="57">
+        <v>43780</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="58">
+        <v>1</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="59">
+        <v>25</v>
+      </c>
+      <c r="B28" s="57">
+        <v>43776</v>
+      </c>
+      <c r="C28" s="57">
+        <v>43780</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="58">
+        <v>1</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>26</v>
+      </c>
+      <c r="B29" s="57">
+        <v>43784</v>
+      </c>
+      <c r="C29" s="60">
+        <v>43790</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="58">
+        <v>1</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
+        <v>27</v>
+      </c>
+      <c r="B30" s="57">
+        <v>43786</v>
+      </c>
+      <c r="C30" s="60">
+        <v>43790</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="58">
+        <v>1</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
+        <v>28</v>
+      </c>
+      <c r="B31" s="57">
+        <v>43787</v>
+      </c>
+      <c r="C31" s="60">
+        <v>43793</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="58">
+        <v>1</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>29</v>
+      </c>
+      <c r="B32" s="60">
+        <v>43789</v>
+      </c>
+      <c r="C32" s="60">
+        <v>43793</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="58">
+        <v>1</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>30</v>
+      </c>
+      <c r="B33" s="60">
+        <v>43789</v>
+      </c>
+      <c r="C33" s="60">
+        <v>43795</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="58">
+        <v>1</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="59">
+        <v>31</v>
+      </c>
+      <c r="B34" s="60">
+        <v>43791</v>
+      </c>
+      <c r="C34" s="60">
+        <v>43795</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="58">
+        <v>1</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="59">
+        <v>32</v>
+      </c>
+      <c r="B35" s="60">
+        <v>43789</v>
+      </c>
+      <c r="C35" s="60">
+        <v>43795</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="58">
+        <v>1</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="59">
+        <v>33</v>
+      </c>
+      <c r="B36" s="60">
+        <v>43791</v>
+      </c>
+      <c r="C36" s="60">
+        <v>43795</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="58">
+        <v>1</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="59">
+        <v>34</v>
+      </c>
+      <c r="B37" s="60">
+        <v>43794</v>
+      </c>
+      <c r="C37" s="60">
+        <v>43799</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="58">
+        <v>1</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="61">
+        <f>C37-B37</f>
+        <v>5</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="59">
+        <v>35</v>
+      </c>
+      <c r="B38" s="57">
+        <v>43796</v>
+      </c>
+      <c r="C38" s="60">
+        <v>43799</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="58">
+        <v>1</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D17">
-    <cfRule type="expression" dxfId="113" priority="28" stopIfTrue="1">
-      <formula>SUMPRODUCT(($B2&lt;$C$2:$C$170)*($C2&gt;$B$2:$B$170)*($D2=$D$2:$D$170))&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="112" priority="27" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I5 I7:I9 I21:I22 I18:I19">
+    <cfRule type="cellIs" dxfId="122" priority="38" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
+  <conditionalFormatting sqref="I1:I5 I7:I9 I21:I22 I18:I19">
+    <cfRule type="cellIs" dxfId="121" priority="37" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="110" priority="25" operator="equal">
+  <conditionalFormatting sqref="I1:I5 I7:I9 I21:I22 I18:I19">
+    <cfRule type="cellIs" dxfId="120" priority="36" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="35" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="34" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="33" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="106" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="32" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="30" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="103" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="29" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="28" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="101" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="100" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="26" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="25" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="24" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="22" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="105" priority="21" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="103" priority="19" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="cellIs" dxfId="102" priority="18" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="101" priority="17" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="100" priority="16" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="99" priority="15" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="98" priority="14" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="97" priority="13" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+      <formula>"Completed-N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I38">
     <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I38">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I38">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"Completed-N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
-      <formula>"Completed-N"</formula>
+  <conditionalFormatting sqref="B2:D999">
+    <cfRule type="expression" dxfId="86" priority="47" stopIfTrue="1">
+      <formula>SUMPRODUCT(($B2&lt;$C$2:$C$172)*($C2&gt;$B$2:$B$172)*($D2=$D$2:$D$172))&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" error="Fix Date Collision" sqref="B2:E17" xr:uid="{D927535F-364F-9147-A871-905C3C09DE8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" error="Fix Date Collision" sqref="B2:E18" xr:uid="{D927535F-364F-9147-A871-905C3C09DE8C}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Clashing Timings" sqref="G6" xr:uid="{A0B5BDA9-8444-AA45-8A82-25239327C13B}">
       <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&gt;1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Fix Date Collision" sqref="A2:A17" xr:uid="{DF23EB9A-ED25-EB4F-8C1A-0363F41E7F14}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Fix Date Collision" sqref="A2:A18" xr:uid="{DF23EB9A-ED25-EB4F-8C1A-0363F41E7F14}">
       <formula1>SUMPRODUCT(($B2&lt;$C$2:$C$17)*($C2&gt;$B$2:$B$17)*($D2=$D$2:$D$17))&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -3021,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
@@ -3919,7 +5778,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4765,7 +6624,7 @@
   <dimension ref="A3:Y51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
@@ -4826,13 +6685,13 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="71" t="str">
         <f>O5</f>
         <v>BP</v>
       </c>
@@ -4882,9 +6741,9 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="54"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -4933,9 +6792,9 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4980,13 +6839,13 @@
       <c r="A7" s="6">
         <v>43516</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="70" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="54"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -5031,11 +6890,11 @@
       <c r="A8" s="6">
         <v>43517</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="31"/>
@@ -5082,11 +6941,11 @@
       <c r="A9" s="6">
         <v>43518</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="54"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -5131,13 +6990,13 @@
       <c r="A10" s="6">
         <v>43519</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="72" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -5184,12 +7043,12 @@
       <c r="A11" s="6">
         <v>43520</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="58" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="75" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="31"/>
@@ -5237,12 +7096,12 @@
       <c r="A12" s="6">
         <v>43521</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="M12" s="9">
@@ -5286,12 +7145,12 @@
       <c r="A13" s="6">
         <v>43522</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="58"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="M13" s="15">
@@ -5337,12 +7196,12 @@
       <c r="A14" s="6">
         <v>43523</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="58"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="M14" s="22">
@@ -5386,17 +7245,17 @@
       <c r="A15" s="6">
         <v>43524</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="71" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="75"/>
+      <c r="H15" s="71" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="31"/>
@@ -5444,13 +7303,13 @@
       <c r="A16" s="6">
         <v>43525</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="54"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="31"/>
       <c r="M16" s="15">
         <v>14</v>
@@ -5496,14 +7355,14 @@
       <c r="A17" s="6">
         <v>43526</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="54"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="56" t="s">
+      <c r="G17" s="75"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="22">
@@ -5548,13 +7407,13 @@
         <v>43527</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="56"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="73"/>
       <c r="M18" s="9">
         <v>4</v>
       </c>
@@ -5599,13 +7458,13 @@
         <v>43528</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="73"/>
       <c r="M19" s="15">
         <v>12</v>
       </c>
@@ -5648,13 +7507,13 @@
         <v>43529</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="73"/>
       <c r="M20" s="22">
         <v>16</v>
       </c>
@@ -5697,117 +7556,117 @@
         <v>43530</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43531</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="54"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43532</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43533</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="54"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="56"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43534</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="54"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="56"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43535</v>
       </c>
       <c r="B26" s="30"/>
-      <c r="C26" s="61"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="58"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="56"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43536</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="61"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="58"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="56"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43537</v>
       </c>
       <c r="B28" s="30"/>
-      <c r="C28" s="61"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="58"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="56"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43538</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="62"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="58"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="56"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -5818,9 +7677,9 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="58"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="31"/>
-      <c r="I30" s="56"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -5831,9 +7690,9 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="58"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="56"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -5844,9 +7703,9 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="58"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="56"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -5854,13 +7713,13 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="74" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="57" t="s">
+      <c r="G33" s="76"/>
+      <c r="H33" s="74" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="40" t="s">
@@ -5872,13 +7731,13 @@
         <v>43555</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="38"/>
       <c r="F34" s="8"/>
-      <c r="H34" s="57"/>
+      <c r="H34" s="74"/>
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5886,7 +7745,7 @@
         <v>43562</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="54"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="31"/>
       <c r="E35" s="38"/>
       <c r="F35" s="8"/>
